--- a/biology/Botanique/Stereospermum_zenkeri/Stereospermum_zenkeri.xlsx
+++ b/biology/Botanique/Stereospermum_zenkeri/Stereospermum_zenkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stereospermum zenkeri K.Schum. est une espèce de plantes de la famille des Bignoniaceae et du genre Stereospermum.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique zenkeri rend hommage au botaniste allemand Georg August Zenker.
 </t>
@@ -542,10 +556,12 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique du Cameroun, dans la région du Centre, précisément à Yaoundé.
-Cette espèce de la famille des Bignoniaceae est un arbre connu de quatre collections, toutes de Yaoundé. Elle est déclarée en danger critique d'extinction à cause de sa zone d'occupation qui est très minime, environ 8 km2 et une zone d’occurrence de moins de 100 km2. Cette espèce qui vit dans la capitale camerounaise est fortement éradiquée par l'urbanisation. Elle a été vue pour la dernière fois en 1950, il est donc très probable qu'elle soit éteinte. L'UICN préconise la prospection botanique de Yaoundé et ses alentours pour permettre la redécouverte de cette espèce[2].
+Cette espèce de la famille des Bignoniaceae est un arbre connu de quatre collections, toutes de Yaoundé. Elle est déclarée en danger critique d'extinction à cause de sa zone d'occupation qui est très minime, environ 8 km2 et une zone d’occurrence de moins de 100 km2. Cette espèce qui vit dans la capitale camerounaise est fortement éradiquée par l'urbanisation. Elle a été vue pour la dernière fois en 1950, il est donc très probable qu'elle soit éteinte. L'UICN préconise la prospection botanique de Yaoundé et ses alentours pour permettre la redécouverte de cette espèce.
 </t>
         </is>
       </c>
